--- a/biology/Écologie/Centre_for_Research_on_Energy_and_Clean_Air/Centre_for_Research_on_Energy_and_Clean_Air.xlsx
+++ b/biology/Écologie/Centre_for_Research_on_Energy_and_Clean_Air/Centre_for_Research_on_Energy_and_Clean_Air.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Le Centre for Reasearch and Clean Air (CREA littéralement « Centre pour la recherche sur l'énergie et la propreté de l'air ») est un groupe de réflexion à but non lucratif qui étudie l'énergie et la pollution de l'air[1]. Le CREA a été fondée à Helsinki en 2019 dans le but de suivre les impacts de la pollution de l'air en fournissant des recherches étayées par des données[2],[3].
+Le Centre for Reasearch and Clean Air (CREA littéralement « Centre pour la recherche sur l'énergie et la propreté de l'air ») est un groupe de réflexion à but non lucratif qui étudie l'énergie et la pollution de l'air. Le CREA a été fondée à Helsinki en 2019 dans le but de suivre les impacts de la pollution de l'air en fournissant des recherches étayées par des données,.
 </t>
         </is>
       </c>
